--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_3.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1673213.866081096</v>
+        <v>-1679650.390656683</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516698</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13869696.65725952</v>
+        <v>13869106.6778691</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>233.2271880590976</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -707,7 +707,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>221.8047306319888</v>
       </c>
     </row>
     <row r="3">
@@ -741,22 +741,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>57.56032851993848</v>
       </c>
       <c r="E3" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>69.9893010461515</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9.921027660834108</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>51.97708357319353</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>248.0662342494165</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>200.7128045586225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -984,7 +984,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>118.8592197488542</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968115</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1038,7 +1038,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4140068734885</v>
+        <v>28.77181545328721</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>11.33619850810961</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>53.03638470914571</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,16 +1136,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>262.9993276325716</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -1184,7 +1184,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>51.11588576401822</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>23.97140147534247</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -1345,7 +1345,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>203.857307440371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>99.28130333122681</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>337.9528155621449</v>
@@ -1388,7 +1388,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372786</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362799</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
-        <v>35.65971766200994</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>58.36187403545489</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177844</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465755</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442482</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681696</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
@@ -1591,10 +1591,10 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>82.66240703004095</v>
       </c>
     </row>
     <row r="14">
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>158.6305783485261</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>99.20626839580498</v>
       </c>
       <c r="G14" t="n">
         <v>337.9528155621449</v>
@@ -1625,7 +1625,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372786</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>267.6074288087848</v>
@@ -1670,7 +1670,7 @@
         <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993872</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177844</v>
+        <v>36.80832087907367</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465755</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442482</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681696</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
-        <v>82.845453133389</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456093</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901685</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>118.725276681316</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422876545</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093888</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.777769861911</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291034</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838895</v>
+        <v>24.17382596574991</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828908</v>
+        <v>52.06849973565004</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.9058214308069</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.745882215895</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.0194812043174</v>
+        <v>70.57601873167836</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459981</v>
+        <v>55.72314698196077</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643953</v>
+        <v>41.29686219380049</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931864</v>
+        <v>41.2233042466796</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908591</v>
+        <v>42.97275566644687</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147805</v>
+        <v>53.79159358883901</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805009</v>
+        <v>41.14384575541105</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922202</v>
+        <v>18.98356133658298</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367794</v>
+        <v>9.882059701038898</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920526</v>
+        <v>88.00800320656622</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947759</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D35" t="n">
         <v>251.2267481799146</v>
@@ -3275,16 +3275,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="38">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
         <v>268.1977203190365</v>
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>913.3333414203428</v>
+        <v>201.8167495650846</v>
       </c>
       <c r="C2" t="n">
-        <v>913.3333414203428</v>
+        <v>201.8167495650846</v>
       </c>
       <c r="D2" t="n">
-        <v>527.8922126370105</v>
+        <v>201.8167495650846</v>
       </c>
       <c r="E2" t="n">
-        <v>527.8922126370105</v>
+        <v>201.8167495650846</v>
       </c>
       <c r="F2" t="n">
-        <v>515.0381782073923</v>
+        <v>188.9627151354664</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357996</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475499</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222168</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L2" t="n">
-        <v>895.7983071407457</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>1434.057092150839</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="N2" t="n">
-        <v>1961.8683757883</v>
+        <v>1102.089684652125</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737749</v>
+        <v>1542.129285544453</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737749</v>
+        <v>1890.316777675975</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023271</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964322</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="T2" t="n">
-        <v>1746.775898523738</v>
+        <v>1813.668821661862</v>
       </c>
       <c r="U2" t="n">
-        <v>1491.023168958337</v>
+        <v>1557.91609209646</v>
       </c>
       <c r="V2" t="n">
-        <v>1148.916359661855</v>
+        <v>1215.809282799979</v>
       </c>
       <c r="W2" t="n">
-        <v>1148.916359661855</v>
+        <v>1215.809282799979</v>
       </c>
       <c r="X2" t="n">
-        <v>1148.916359661855</v>
+        <v>826.3566777330358</v>
       </c>
       <c r="Y2" t="n">
-        <v>1148.916359661855</v>
+        <v>602.3114952764814</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021442</v>
+        <v>556.1927859813184</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622364</v>
+        <v>405.5385555414106</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837168</v>
+        <v>347.3968095616747</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946045</v>
+        <v>210.9503186725624</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777363</v>
+        <v>210.9503186725624</v>
       </c>
       <c r="G3" t="n">
-        <v>114.1919230777363</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475499</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144824</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>156.6106416144824</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>480.0174418653872</v>
+        <v>1155.938290490838</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.27622687548</v>
+        <v>1155.938290490838</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466461</v>
+        <v>1669.540969100526</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182859</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635814</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734591</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413233</v>
+        <v>1529.267662492407</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.3482927843</v>
+        <v>1306.727660863474</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917587</v>
+        <v>1076.610414996761</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675983</v>
+        <v>887.3033373467724</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431056</v>
+        <v>707.9891204222797</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221.770953356758</v>
+        <v>543.4351141277239</v>
       </c>
       <c r="C4" t="n">
-        <v>221.770953356758</v>
+        <v>373.2299961937131</v>
       </c>
       <c r="D4" t="n">
-        <v>221.770953356758</v>
+        <v>373.2299961937131</v>
       </c>
       <c r="E4" t="n">
-        <v>211.7497132953094</v>
+        <v>373.2299961937131</v>
       </c>
       <c r="F4" t="n">
-        <v>211.7497132953094</v>
+        <v>373.2299961937131</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475499</v>
+        <v>204.9759422931587</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475499</v>
+        <v>204.9759422931587</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475499</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="V4" t="n">
-        <v>678.9633367571316</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="W4" t="n">
-        <v>678.9633367571316</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="X4" t="n">
-        <v>444.8830145401147</v>
+        <v>766.5471753110805</v>
       </c>
       <c r="Y4" t="n">
-        <v>221.770953356758</v>
+        <v>543.4351141277239</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1710.549246957816</v>
+        <v>1042.175040918752</v>
       </c>
       <c r="C5" t="n">
-        <v>1317.373745460747</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="D5" t="n">
-        <v>931.9326166774147</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="E5" t="n">
-        <v>931.9326166774147</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="F5" t="n">
-        <v>919.0785822477965</v>
+        <v>374.7086486614406</v>
       </c>
       <c r="G5" t="n">
-        <v>505.9158267357996</v>
+        <v>365.5862971898478</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475499</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>43.49565939475499</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="L5" t="n">
-        <v>135.6402479253956</v>
+        <v>679.4733113836954</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354884</v>
+        <v>679.4733113836954</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.71031657295</v>
+        <v>1193.075989993384</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465279</v>
+        <v>1542.129285544453</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596801</v>
+        <v>1890.316777675975</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023271</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="S5" t="n">
-        <v>2136.790056023271</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="T5" t="n">
-        <v>1913.289453582688</v>
+        <v>1813.668821661862</v>
       </c>
       <c r="U5" t="n">
-        <v>1913.289453582688</v>
+        <v>1813.668821661862</v>
       </c>
       <c r="V5" t="n">
-        <v>1913.289453582688</v>
+        <v>1813.668821661862</v>
       </c>
       <c r="W5" t="n">
-        <v>1913.289453582688</v>
+        <v>1442.669786630149</v>
       </c>
       <c r="X5" t="n">
-        <v>1913.289453582688</v>
+        <v>1442.669786630149</v>
       </c>
       <c r="Y5" t="n">
-        <v>1710.549246957816</v>
+        <v>1442.669786630149</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>716.4374237795013</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>565.7831933395935</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>435.6942259610738</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.8829133828434</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475499</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>363.2348054569814</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>846.8008913552947</v>
+        <v>921.5731989359468</v>
       </c>
       <c r="M6" t="n">
-        <v>1385.059676365388</v>
+        <v>921.5731989359468</v>
       </c>
       <c r="N6" t="n">
-        <v>1769.161601021352</v>
+        <v>921.5731989359468</v>
       </c>
       <c r="O6" t="n">
-        <v>1769.161601021352</v>
+        <v>1435.175877545635</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.782969737749</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737749</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737749</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492407</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863474</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996761</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1047.547975144955</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>868.2337582204626</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475499</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475499</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475499</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475499</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475499</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475499</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>618.2256087514338</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>382.5065569196679</v>
+        <v>931.4995637341439</v>
       </c>
       <c r="U7" t="n">
-        <v>97.06776516156884</v>
+        <v>931.4995637341439</v>
       </c>
       <c r="V7" t="n">
-        <v>43.49565939475499</v>
+        <v>665.5202185549681</v>
       </c>
       <c r="W7" t="n">
-        <v>43.49565939475499</v>
+        <v>382.1898164861458</v>
       </c>
       <c r="X7" t="n">
-        <v>43.49565939475499</v>
+        <v>382.1898164861458</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.49565939475499</v>
+        <v>382.1898164861458</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1192.283462410157</v>
+        <v>917.1506521271314</v>
       </c>
       <c r="C8" t="n">
-        <v>1192.283462410157</v>
+        <v>917.1506521271314</v>
       </c>
       <c r="D8" t="n">
-        <v>1192.283462410157</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="E8" t="n">
-        <v>1192.283462410157</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="F8" t="n">
-        <v>775.3890239401352</v>
+        <v>518.8554889141809</v>
       </c>
       <c r="G8" t="n">
         <v>509.7331374425881</v>
@@ -4805,22 +4805,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>353.2546601492718</v>
       </c>
       <c r="L8" t="n">
-        <v>540.6332618200724</v>
+        <v>846.5749518678007</v>
       </c>
       <c r="M8" t="n">
-        <v>1086.634161864653</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N8" t="n">
-        <v>1614.445445502115</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2054.485046394444</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4832,22 +4832,22 @@
         <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>1905.389306738351</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>1563.28249744187</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W8" t="n">
-        <v>1192.283462410157</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X8" t="n">
-        <v>1192.283462410157</v>
+        <v>968.782859969574</v>
       </c>
       <c r="Y8" t="n">
-        <v>1192.283462410157</v>
+        <v>917.1506521271314</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>530.879055999857</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1116.377061006459</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1701.875066013061</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O9" t="n">
-        <v>2218.395348604042</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>180.4073954644657</v>
+        <v>1494.579752709526</v>
       </c>
       <c r="C10" t="n">
-        <v>180.4073954644657</v>
+        <v>1494.579752709526</v>
       </c>
       <c r="D10" t="n">
-        <v>180.4073954644657</v>
+        <v>1494.579752709526</v>
       </c>
       <c r="E10" t="n">
-        <v>180.4073954644657</v>
+        <v>1494.579752709526</v>
       </c>
       <c r="F10" t="n">
-        <v>180.4073954644657</v>
+        <v>1494.579752709526</v>
       </c>
       <c r="G10" t="n">
-        <v>180.4073954644657</v>
+        <v>1494.579752709526</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>1494.579752709526</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>1494.579752709526</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="K10" t="n">
-        <v>129.1480112114855</v>
+        <v>1546.036523645569</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852853</v>
+        <v>1710.164163519369</v>
       </c>
       <c r="M10" t="n">
-        <v>479.5672294235493</v>
+        <v>1896.455741857633</v>
       </c>
       <c r="N10" t="n">
-        <v>662.7568634547586</v>
+        <v>2079.645375888842</v>
       </c>
       <c r="O10" t="n">
-        <v>825.4616304964666</v>
+        <v>2242.350142930551</v>
       </c>
       <c r="P10" t="n">
-        <v>945.3377962730451</v>
+        <v>2362.226308707129</v>
       </c>
       <c r="Q10" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>2341.4349682334</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>2138.618884415949</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>1902.899832584184</v>
       </c>
       <c r="U10" t="n">
-        <v>180.4073954644657</v>
+        <v>1902.899832584184</v>
       </c>
       <c r="V10" t="n">
-        <v>180.4073954644657</v>
+        <v>1902.899832584184</v>
       </c>
       <c r="W10" t="n">
-        <v>180.4073954644657</v>
+        <v>1902.899832584184</v>
       </c>
       <c r="X10" t="n">
-        <v>180.4073954644657</v>
+        <v>1902.899832584184</v>
       </c>
       <c r="Y10" t="n">
-        <v>180.4073954644657</v>
+        <v>1679.787771400827</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1398.198638179665</v>
+        <v>1688.124554843851</v>
       </c>
       <c r="C11" t="n">
-        <v>1398.198638179665</v>
+        <v>1366.745328492975</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179665</v>
+        <v>1053.100474855837</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>722.3132251185754</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185755</v>
+        <v>722.3132251185754</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527725</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654572</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5078,13 +5078,13 @@
         <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2369.247872598823</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X11" t="n">
-        <v>2051.591542678073</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y11" t="n">
-        <v>1726.897108744868</v>
+        <v>1788.408699622868</v>
       </c>
     </row>
     <row r="12">
@@ -5124,19 +5124,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>973.7913173233209</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1629.56928853388</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>470.6573289598048</v>
+        <v>497.339280970973</v>
       </c>
       <c r="C13" t="n">
-        <v>411.7059410452042</v>
+        <v>398.9304381831561</v>
       </c>
       <c r="D13" t="n">
-        <v>327.8691030939128</v>
+        <v>315.0936002318647</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1065660993092</v>
+        <v>231.331063237261</v>
       </c>
       <c r="F13" t="n">
-        <v>158.5769064584761</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="G13" t="n">
-        <v>62.11912770411553</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H13" t="n">
         <v>62.11912770411553</v>
@@ -5197,22 +5197,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1365.712833143251</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T13" t="n">
-        <v>1365.712833143251</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="U13" t="n">
-        <v>1152.070316531345</v>
+        <v>1099.965602310116</v>
       </c>
       <c r="V13" t="n">
-        <v>957.8872464983637</v>
+        <v>905.7825322771341</v>
       </c>
       <c r="W13" t="n">
-        <v>746.3531195757353</v>
+        <v>694.2484053545056</v>
       </c>
       <c r="X13" t="n">
-        <v>584.0690725049121</v>
+        <v>694.2484053545056</v>
       </c>
       <c r="Y13" t="n">
-        <v>584.0690725049121</v>
+        <v>610.7510245160804</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1398.198638179665</v>
+        <v>1788.332906758806</v>
       </c>
       <c r="C14" t="n">
-        <v>1398.198638179665</v>
+        <v>1466.953680407931</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179665</v>
+        <v>1153.308826770792</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>822.5215770335307</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185752</v>
+        <v>722.3132251185756</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527723</v>
+        <v>380.9467447527726</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2954.252057911387</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U14" t="n">
-        <v>2770.295603492179</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="V14" t="n">
-        <v>2499.985069341891</v>
+        <v>2740.928571142733</v>
       </c>
       <c r="W14" t="n">
-        <v>2200.782309456373</v>
+        <v>2441.725811257214</v>
       </c>
       <c r="X14" t="n">
-        <v>1883.125979535624</v>
+        <v>2441.725811257214</v>
       </c>
       <c r="Y14" t="n">
-        <v>1558.431545602419</v>
+        <v>2117.03137732401</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1606.310991511064</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N15" t="n">
-        <v>2262.088962721623</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
         <v>2380.454662679751</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>655.0952099420615</v>
+        <v>510.0296513030281</v>
       </c>
       <c r="C16" t="n">
-        <v>556.6863671542446</v>
+        <v>510.0296513030281</v>
       </c>
       <c r="D16" t="n">
-        <v>472.8495292029532</v>
+        <v>472.8495292029534</v>
       </c>
       <c r="E16" t="n">
-        <v>389.0869922083497</v>
+        <v>389.0869922083498</v>
       </c>
       <c r="F16" t="n">
         <v>303.5573325675165</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>207.099553813156</v>
       </c>
       <c r="H16" t="n">
         <v>123.4172779208438</v>
@@ -5434,19 +5434,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774628</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118224</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138162</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="T16" t="n">
-        <v>1193.683597021703</v>
+        <v>1280.705150907706</v>
       </c>
       <c r="U16" t="n">
-        <v>980.0410804097974</v>
+        <v>1067.062634295801</v>
       </c>
       <c r="V16" t="n">
-        <v>980.0410804097974</v>
+        <v>872.879564262819</v>
       </c>
       <c r="W16" t="n">
-        <v>768.5069534871689</v>
+        <v>661.3454373401909</v>
       </c>
       <c r="X16" t="n">
-        <v>768.5069534871689</v>
+        <v>661.3454373401909</v>
       </c>
       <c r="Y16" t="n">
-        <v>768.5069534871689</v>
+        <v>510.0296513030281</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975461</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099323</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803428</v>
+        <v>261.1858216803439</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924335</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,16 +5549,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>802.5350401618138</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,52 +5647,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031229942</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222413</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5744,7 +5744,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5841,7 +5841,7 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1606.310991511064</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O21" t="n">
         <v>1740.468202408463</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5914,22 +5914,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750519</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,16 +6011,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V23" t="n">
         <v>2644.789635573994</v>
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229882</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222407</v>
       </c>
       <c r="L25" t="n">
-        <v>313.661451296041</v>
+        <v>313.6614512960405</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567336</v>
+        <v>499.9530296343045</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P25" t="n">
         <v>1094.779966106229</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424154</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218605</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390266</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142182</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755029</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563783</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>606.9665031662613</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1193.338156614363</v>
       </c>
       <c r="M26" t="n">
-        <v>1802.420903106096</v>
+        <v>1739.339056658944</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O26" t="n">
-        <v>2956.374511095034</v>
+        <v>2893.292664647881</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508979</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379501</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377514</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605753</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640573</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>872.7308420875813</v>
+        <v>872.7308420875812</v>
       </c>
       <c r="C27" t="n">
-        <v>722.0766116476735</v>
+        <v>722.0766116476734</v>
       </c>
       <c r="D27" t="n">
-        <v>591.9876442691539</v>
+        <v>591.9876442691537</v>
       </c>
       <c r="E27" t="n">
         <v>455.5411533800415</v>
@@ -6294,46 +6294,46 @@
         <v>331.1093472631733</v>
       </c>
       <c r="G27" t="n">
-        <v>211.0495293350378</v>
+        <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755029</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755029</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>73.36485894755029</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>556.9309448458636</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1184.702594472545</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>1840.480565683104</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O27" t="n">
-        <v>2357.000848274085</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
-        <v>2357.000848274085</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
       </c>
       <c r="R27" t="n">
-        <v>2367.783350821251</v>
+        <v>2367.78335082125</v>
       </c>
       <c r="S27" t="n">
-        <v>2232.85267372112</v>
+        <v>2232.852673721119</v>
       </c>
       <c r="T27" t="n">
-        <v>2055.868861920028</v>
+        <v>2055.868861920027</v>
       </c>
       <c r="U27" t="n">
         <v>1845.80571859867</v>
@@ -6342,13 +6342,13 @@
         <v>1623.265716969737</v>
       </c>
       <c r="W27" t="n">
-        <v>1393.148471103024</v>
+        <v>1393.148471103023</v>
       </c>
       <c r="X27" t="n">
         <v>1203.841393453035</v>
       </c>
       <c r="Y27" t="n">
-        <v>1024.527176528543</v>
+        <v>1024.527176528542</v>
       </c>
     </row>
     <row r="28">
@@ -6361,37 +6361,37 @@
         <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
         <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755029</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6467,22 +6467,22 @@
         <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1163.368641331942</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658946</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.201702025981</v>
+        <v>2509.067570753567</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>3042.158533375469</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3390.346025506991</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6552,7 +6552,7 @@
         <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1751.713933651898</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463666</v>
+        <v>904.3560533993082</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057088</v>
+        <v>601.3807258108111</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189323</v>
+        <v>91.97314162835514</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>323.857029086156</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>682.8393851136179</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1256.456677426991</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1802.457577471572</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031763</v>
+        <v>2330.268861109034</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.897938924092</v>
+        <v>2770.308462001362</v>
       </c>
       <c r="P32" t="n">
-        <v>3139.085431055613</v>
+        <v>3118.495954132884</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042572</v>
+        <v>3303.341514273833</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908497</v>
+        <v>3325.162335939832</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397279</v>
+        <v>3215.580844380774</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696898</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394125</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131754</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076164</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>69.54754824076164</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>553.1136341390749</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="M33" t="n">
-        <v>575.5983691435694</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965132</v>
+        <v>365.6713676929722</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918669</v>
+        <v>309.3853606404866</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237462</v>
+        <v>267.6713584245265</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123132</v>
+        <v>226.0316571652542</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546507</v>
+        <v>182.6248332597523</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834608</v>
+        <v>128.2898902407229</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431925</v>
+        <v>86.73045008374207</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074064</v>
+        <v>149.390176712287</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812061</v>
+        <v>425.1699371610695</v>
       </c>
       <c r="M34" t="n">
-        <v>787.8473431465402</v>
+        <v>687.4874315041448</v>
       </c>
       <c r="N34" t="n">
-        <v>989.5643011041664</v>
+        <v>870.677065535354</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872945</v>
+        <v>1145.033953152045</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649523</v>
+        <v>1264.910118928623</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746644</v>
+        <v>1379.984435873657</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308586</v>
+        <v>1370.002557387759</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.2176684205</v>
+        <v>1281.105584451834</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.305643501593</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689364</v>
+        <v>987.7859626250194</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395524</v>
+        <v>835.7257283273688</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000945</v>
+        <v>666.3144371400715</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124421</v>
+        <v>546.1532258045797</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.02107175845</v>
+        <v>436.9602755027483</v>
       </c>
     </row>
     <row r="35">
@@ -6914,22 +6914,22 @@
         <v>1614.059487414178</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975459</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099321</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803437</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6962,22 +6962,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U35" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443166</v>
@@ -7023,16 +7023,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.313011372373</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031229933</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222412</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>313.661451296041</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7211,7 +7211,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7260,10 +7260,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O39" t="n">
         <v>1740.468202408463</v>
@@ -7330,28 +7330,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7394,16 +7394,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,7 +7436,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7445,10 +7445,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
@@ -7488,16 +7488,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1493.196009291336</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
         <v>1740.468202408463</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7576,43 +7576,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133168</v>
       </c>
       <c r="N43" t="n">
-        <v>683.1426636655136</v>
+        <v>804.5780233445259</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296503</v>
+        <v>967.282790386234</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,22 +7673,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7737,7 +7737,7 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1740.468202408463</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128482</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N46" t="n">
-        <v>806.619390679759</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O46" t="n">
-        <v>969.3241577214671</v>
+        <v>967.282790386234</v>
       </c>
       <c r="P46" t="n">
-        <v>1089.200323498046</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7985,19 +7985,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321646</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>213.3952764296702</v>
       </c>
       <c r="O2" t="n">
-        <v>364.629083837681</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,25 +8058,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>419.0606576562866</v>
+        <v>292.4021013970209</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886039</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431198</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,22 +8213,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>246.3235116806337</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321646</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.909075792015</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>502.1429238393177</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>541.7935023090946</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837492</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>473.3538549308983</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>611.4781433431198</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,7 +8453,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>452.0904133284578</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8462,16 +8462,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>464.6079711628815</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,10 +8529,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
@@ -8544,13 +8544,13 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>235.8239269133934</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>324.2399822288082</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8696,7 +8696,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M11" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N11" t="n">
         <v>682.2612020826953</v>
@@ -8772,13 +8772,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>576.0417294606771</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8787,7 +8787,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9012,16 +9012,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
-        <v>212.2488719779076</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9240,28 +9240,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>199.9106794075977</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9489,10 +9489,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O21" t="n">
-        <v>228.1998931286865</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9714,28 +9714,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,10 +9951,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
@@ -9963,16 +9963,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>220.884447093964</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>126.0381992661178</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10200,10 +10200,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>220.884447093964</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>228.1998931286863</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10425,22 +10425,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>115.0989755892053</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286867</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10671,19 +10671,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>569.9919810238538</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10908,13 +10908,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
@@ -11136,7 +11136,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11148,7 +11148,7 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>335.1420048916687</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O42" t="n">
         <v>92.68755888888889</v>
@@ -11385,10 +11385,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>220.8844470939643</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>226.1301825283242</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>260.5510146246535</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="12">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>39.06288032448383</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H13" t="n">
-        <v>82.845453133389</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456093</v>
+        <v>60.68516871456099</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901685</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>67.14022114675021</v>
       </c>
     </row>
     <row r="14">
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>166.7809075110249</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>242.4409132947851</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362799</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>46.19014869270479</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>43.55827223740026</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-1.125499693443999e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1219095.294790418</v>
+        <v>1218794.520983538</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1219095.294790418</v>
+        <v>1218794.520983538</v>
       </c>
     </row>
     <row r="4">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>54099.65342800704</v>
+        <v>54099.65342800703</v>
       </c>
       <c r="C2" t="n">
         <v>54099.65342800704</v>
       </c>
       <c r="D2" t="n">
-        <v>54099.65342800704</v>
+        <v>54099.65342800703</v>
       </c>
       <c r="E2" t="n">
-        <v>47807.70702732014</v>
+        <v>47807.70702732013</v>
       </c>
       <c r="F2" t="n">
-        <v>47807.70702732014</v>
+        <v>47807.70702732012</v>
       </c>
       <c r="G2" t="n">
-        <v>54099.65342800704</v>
+        <v>54099.65342800703</v>
       </c>
       <c r="H2" t="n">
+        <v>54099.65342800703</v>
+      </c>
+      <c r="I2" t="n">
+        <v>54099.65342800702</v>
+      </c>
+      <c r="J2" t="n">
         <v>54099.65342800705</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>54099.65342800706</v>
+      </c>
+      <c r="L2" t="n">
         <v>54099.65342800703</v>
-      </c>
-      <c r="J2" t="n">
-        <v>54099.65342800703</v>
-      </c>
-      <c r="K2" t="n">
-        <v>54099.65342800704</v>
-      </c>
-      <c r="L2" t="n">
-        <v>54099.653428007</v>
       </c>
       <c r="M2" t="n">
         <v>54099.65342800705</v>
       </c>
       <c r="N2" t="n">
-        <v>54099.65342800704</v>
+        <v>54099.65342800705</v>
       </c>
       <c r="O2" t="n">
-        <v>54099.65342800703</v>
+        <v>54099.65342800706</v>
       </c>
       <c r="P2" t="n">
-        <v>54099.65342800703</v>
+        <v>54099.65342800706</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062187</v>
+        <v>22558.4295340134</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668194</v>
+        <v>47425.32553668198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945027</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728547</v>
+        <v>62456.24177539673</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962298</v>
+        <v>43252.52447081111</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277125</v>
+        <v>27767.69404277117</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178075.8047892385</v>
+        <v>184487.2052585815</v>
       </c>
       <c r="C4" t="n">
-        <v>178075.8047892386</v>
+        <v>184487.2052585815</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
       </c>
       <c r="E4" t="n">
-        <v>86988.78851589427</v>
+        <v>86988.78851589424</v>
       </c>
       <c r="F4" t="n">
-        <v>86988.78851589427</v>
+        <v>86988.78851589425</v>
       </c>
       <c r="G4" t="n">
-        <v>134747.7050074764</v>
+        <v>134747.7050074765</v>
       </c>
       <c r="H4" t="n">
         <v>134747.7050074764</v>
       </c>
       <c r="I4" t="n">
-        <v>134747.7050074764</v>
+        <v>134747.7050074765</v>
       </c>
       <c r="J4" t="n">
         <v>135498.1974718596</v>
@@ -26445,7 +26445,7 @@
         <v>135498.1974718596</v>
       </c>
       <c r="L4" t="n">
-        <v>135242.6235713762</v>
+        <v>135109.2289623214</v>
       </c>
       <c r="M4" t="n">
         <v>134747.7050074764</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26491,16 +26491,16 @@
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391952</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-372865.4007931012</v>
+        <v>-369416.2763994469</v>
       </c>
       <c r="C6" t="n">
-        <v>-190660.4525012453</v>
+        <v>-195557.6193653917</v>
       </c>
       <c r="D6" t="n">
-        <v>-196099.9944770695</v>
+        <v>-203836.283700461</v>
       </c>
       <c r="E6" t="n">
-        <v>-204489.6626624592</v>
+        <v>-204699.3942091487</v>
       </c>
       <c r="F6" t="n">
-        <v>-92367.10118841464</v>
+        <v>-92576.83273510424</v>
       </c>
       <c r="G6" t="n">
-        <v>-186243.146431671</v>
+        <v>-186243.1464316711</v>
       </c>
       <c r="H6" t="n">
-        <v>-138817.820894989</v>
+        <v>-138817.8208949891</v>
       </c>
       <c r="I6" t="n">
         <v>-138817.8208949891</v>
       </c>
       <c r="J6" t="n">
-        <v>-351859.7384922747</v>
+        <v>-345343.4533377014</v>
       </c>
       <c r="K6" t="n">
         <v>-145057.589297772</v>
       </c>
       <c r="L6" t="n">
-        <v>-200240.1782323932</v>
+        <v>-204289.0154428654</v>
       </c>
       <c r="M6" t="n">
-        <v>-181018.650354612</v>
+        <v>-182070.3453658001</v>
       </c>
       <c r="N6" t="n">
         <v>-138817.8208949891</v>
       </c>
       <c r="O6" t="n">
-        <v>-166585.5149377603</v>
+        <v>-166585.5149377602</v>
       </c>
       <c r="P6" t="n">
-        <v>-138817.8208949891</v>
+        <v>-138817.820894989</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,16 +26707,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443785</v>
+        <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095205</v>
+        <v>844.439195029314</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085243</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660683</v>
+        <v>78.07030221924592</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551352</v>
+        <v>17.58004954287442</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.70961755346396</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485777</v>
+        <v>72.62154181506423</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773718</v>
+        <v>659.3622249971647</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407254</v>
+        <v>117.1268713042791</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085243</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485777</v>
+        <v>72.62154181506423</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>163.2626101951853</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>170.7210713566161</v>
       </c>
     </row>
     <row r="3">
@@ -27461,22 +27461,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>71.22774918479598</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>17.42514118925358</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>144.0821963585554</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -27555,10 +27555,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27594,13 +27594,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>179.7624354216532</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>141.1775122326822</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>191.8129974299824</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27704,7 +27704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.9184993862691</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>158.6421914202012</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27789,7 +27789,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.0256628053386</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>210.2831670182383</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27856,16 +27856,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>146.0318003243053</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>341.4099162245867</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28029,10 +28029,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>98.69057799840633</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,7 +28065,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>78.7270964001471</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28077,7 +28077,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="17">
@@ -28743,31 +28743,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668825</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28986,25 +28986,25 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O22" t="n">
-        <v>5.636002634529035</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29217,19 +29217,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668765</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>5.636002634529092</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>30.27223765901124</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P26" t="n">
-        <v>30.27223765901368</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431664</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29539,25 +29539,25 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>30.27223765901272</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>86.65052755599572</v>
       </c>
       <c r="O29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,43 +29746,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>81.10808140893357</v>
       </c>
       <c r="M32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -29791,31 +29791,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>86.27291196566659</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000709</v>
+        <v>76.79385455031434</v>
       </c>
       <c r="N34" t="n">
-        <v>18.71446861254239</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="36">
@@ -30141,31 +30141,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J37" t="n">
-        <v>35.71049010668816</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30183,34 +30183,34 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082788</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="38">
@@ -30402,31 +30402,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>28.01250026485263</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5.636002634529063</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30648,22 +30648,22 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="N43" t="n">
-        <v>5.636002634528467</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30876,7 +30876,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30888,19 +30888,19 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>28.01250026485289</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>5.636002634528316</v>
-      </c>
-      <c r="R46" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34705,19 +34705,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344373</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>64.27678509188615</v>
       </c>
       <c r="O2" t="n">
-        <v>215.0652464135846</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>326.6735356069747</v>
+        <v>200.014979347709</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344373</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,22 +34933,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>93.07534195014198</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344373</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>352.5790864152214</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>451.7331554521763</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344373</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>387.9817420767316</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>309.0320101492204</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35182,16 +35182,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>314.3065239219563</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
@@ -35264,13 +35264,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>148.7405620940788</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N11" t="n">
         <v>533.1427107449111</v>
@@ -35492,13 +35492,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>483.6546074113651</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35732,16 +35732,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>119.5613130890187</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634529181</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36057,13 +36057,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P20" t="n">
         <v>351.7045375065877</v>
@@ -36209,10 +36209,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O21" t="n">
-        <v>135.5123342397976</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36282,16 +36282,16 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>294.0834769302974</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>5.636002634528578</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>171.4214974565491</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905432</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>392.8806780907909</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
@@ -36610,13 +36610,13 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>381.9767751656014</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
@@ -36683,16 +36683,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.0500461102038</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122748</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>581.7882983101042</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>619.7932383009069</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,10 +36920,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>135.5123342397974</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>258.8908014987989</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>579.4114063771445</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511623</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.479168044982</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
@@ -37087,10 +37087,10 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>272.9855989767257</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273758</v>
+        <v>75.16693519537662</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>22.71185353989343</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397978</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.2619698279118</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868808</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>278.5654145947299</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528628</v>
+        <v>264.9671660031063</v>
       </c>
       <c r="N34" t="n">
-        <v>203.7545029875012</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371497</v>
+        <v>277.1281693097887</v>
       </c>
       <c r="P34" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102233</v>
+        <v>116.2366837828624</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>484.6198681696871</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37470,7 +37470,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37479,13 +37479,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.636002634530013</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37628,13 +37628,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
@@ -37698,31 +37698,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>165.78549482202</v>
+        <v>193.7979950868726</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37868,7 +37868,7 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>249.769892037502</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37944,13 +37944,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>316.4712935610703</v>
       </c>
       <c r="N43" t="n">
-        <v>190.6760370094873</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38105,10 +38105,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>135.5123342397976</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
@@ -38184,19 +38184,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>315.4000036905432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>192.3607498019317</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>9.092766644680799</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
